--- a/biology/Botanique/Lindheimera/Lindheimera.xlsx
+++ b/biology/Botanique/Lindheimera/Lindheimera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lindheimera est un genre de plantes à fleurs de la famille des Astéracées originaire d'Amérique du Nord.
 </t>
@@ -511,7 +523,9 @@
           <t>Position taxinomique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Lindheimera appartient à la sous-famille des Asteroideae, tribu des Heliantheae.
 L'espèce type, Lindheimera texana, est originaire de la collection de Ferdinand Lindheimer : Asa Gray lui dédie pour cette raison le nom de ce genre. 
@@ -543,11 +557,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit de plantes annuelles au feuillage pubescent. Les feuilles sont alternes à la base, puis deviennent opposées vers les sommets des tiges.
 Les inflorescences, radiales, portent quatre à cinq fleurs fertiles et de nombreuses autres stériles.
-Les espèces du genre sont diploïdes, avec 16 = 2 n chromosomes[1].
+Les espèces du genre sont diploïdes, avec 16 = 2 n chromosomes.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La liste des espèces a été constituée à partir des index IPNI (International Plant Names Index) et Tropicos (index du Jardin botanique du Missouri) à la date de septembre 2011 :
 Lindheimera mexicana A.Gray (1880)
